--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/ILLINOIS_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/ILLINOIS_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1839"/>
+  <dimension ref="A1:D1833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C37">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C42">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C48">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C52">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C72">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C84">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C124">
@@ -2037,7 +2037,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C127">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C144">
@@ -2271,7 +2271,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C145">
@@ -2627,7 +2627,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C172">
@@ -2827,7 +2827,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C187">
@@ -2853,7 +2853,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2910,7 +2910,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C208">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C222">
@@ -3344,7 +3344,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C226">
@@ -3435,7 +3435,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C233">
@@ -3448,7 +3448,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C234">
@@ -3461,7 +3461,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C235">
@@ -3474,7 +3474,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C236">
@@ -3604,12 +3604,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C246">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C249">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C251">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C256">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C263">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C269">
@@ -3999,7 +3999,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C276">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C284">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C285">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C301">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C314">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C316">
@@ -4545,7 +4545,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C318">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C320">
@@ -4688,7 +4688,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C329">
@@ -4701,7 +4701,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C330">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C344">
@@ -4961,7 +4961,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C350">
@@ -4974,7 +4974,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C351">
@@ -4987,7 +4987,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C352">
@@ -5000,7 +5000,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C353">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C366">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C367">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C368">
@@ -5304,7 +5304,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C376">
@@ -5356,7 +5356,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C380">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C388">
@@ -5512,7 +5512,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C392">
@@ -5532,13 +5532,13 @@
         <v>74</v>
       </c>
       <c r="D393">
-        <v>0.0009627644349613593</v>
+        <v>0.0009627644349613592</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C394">
@@ -5564,7 +5564,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C396">
@@ -5590,7 +5590,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C398">
@@ -5616,7 +5616,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C400">
@@ -5681,7 +5681,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C405">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C414">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C415">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C420">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C422">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C423">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C426">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C427">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C429">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C434">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C435">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C439">
@@ -6141,7 +6141,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C440">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C446">
@@ -6232,7 +6232,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C447">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C449">
@@ -6297,7 +6297,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C452">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C455">
@@ -6505,7 +6505,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C468">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C470">
@@ -6557,7 +6557,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C472">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C474">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C479">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C491">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C497">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C498">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C504">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C510">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C514">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C517">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C523">
@@ -7238,7 +7238,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C524">
@@ -7251,7 +7251,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C525">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C526">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C527">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C530">
@@ -7329,7 +7329,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C531">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C534">
@@ -7433,7 +7433,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C539">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C540">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C544">
@@ -7524,7 +7524,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C546">
@@ -7537,7 +7537,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C547">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C549">
@@ -7667,7 +7667,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C557">
@@ -7680,7 +7680,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C558">
@@ -7693,7 +7693,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C559">
@@ -7719,7 +7719,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C561">
@@ -7732,7 +7732,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C562">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C567">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C568">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C572">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C575">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C577">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C583">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C589">
@@ -8101,7 +8101,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C590">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C598">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C605">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C606">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C607">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C611">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C617">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C618">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C626">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C631">
@@ -8647,7 +8647,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C632">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C634">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C637">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C639">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C640">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C641">
@@ -8777,7 +8777,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C642">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C645">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C646">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C649">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C653">
@@ -8933,7 +8933,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C654">
@@ -8972,7 +8972,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C657">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C658">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C669">
@@ -9141,7 +9141,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C670">
@@ -9154,7 +9154,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C671">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C672">
@@ -9232,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C677">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C678">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C681">
@@ -9297,7 +9297,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C682">
@@ -9640,7 +9640,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C708">
@@ -9666,7 +9666,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C710">
@@ -10537,7 +10537,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C777">
@@ -10848,7 +10848,7 @@
         <v>71</v>
       </c>
       <c r="D800">
-        <v>0.0009237334443548177</v>
+        <v>0.0009237334443548176</v>
       </c>
     </row>
     <row r="801">
@@ -10867,7 +10867,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C802">
@@ -11023,7 +11023,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C814">
@@ -11101,7 +11101,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C820">
@@ -11114,7 +11114,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C821">
@@ -11218,7 +11218,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C829">
@@ -11275,7 +11275,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C833">
@@ -11288,7 +11288,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C834">
@@ -11327,7 +11327,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C837">
@@ -11418,7 +11418,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C844">
@@ -11605,7 +11605,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C858">
@@ -11748,7 +11748,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C869">
@@ -11800,7 +11800,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C873">
@@ -11865,7 +11865,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C878">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C886">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C891">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C897">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C899">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C901">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C903">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C904">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C905">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C910">
@@ -12312,7 +12312,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C912">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C913">
@@ -12455,7 +12455,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C923">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C926">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C927">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C931">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C932">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C933">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C934">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C935">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C937">
@@ -12845,7 +12845,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C953">
@@ -12962,7 +12962,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C962">
@@ -13027,7 +13027,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C967">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C984">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C994">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C996">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1027">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1032">
@@ -13885,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1033">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1048">
@@ -14132,7 +14132,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1052">
@@ -14314,7 +14314,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1066">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1067">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1089">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1094">
@@ -14691,7 +14691,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1095">
@@ -14860,7 +14860,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1108">
@@ -14873,7 +14873,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1109">
@@ -15146,7 +15146,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1130">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1152">
@@ -15627,7 +15627,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1167">
@@ -15640,7 +15640,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1168">
@@ -15653,7 +15653,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1169">
@@ -15666,7 +15666,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1170">
@@ -15692,7 +15692,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1172">
@@ -15718,7 +15718,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1174">
@@ -15731,7 +15731,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1175">
@@ -15757,7 +15757,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1177">
@@ -15770,7 +15770,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1178">
@@ -15783,7 +15783,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1179">
@@ -15796,7 +15796,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1180">
@@ -15835,7 +15835,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1183">
@@ -15848,7 +15848,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1184">
@@ -15926,7 +15926,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1190">
@@ -16230,7 +16230,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1213">
@@ -16282,7 +16282,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1217">
@@ -16412,7 +16412,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1227">
@@ -16555,7 +16555,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1238">
@@ -16568,7 +16568,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1239">
@@ -16750,7 +16750,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1253">
@@ -16763,7 +16763,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1254">
@@ -16802,7 +16802,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1257">
@@ -16828,7 +16828,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1259">
@@ -16854,7 +16854,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1261">
@@ -16971,7 +16971,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1270">
@@ -16984,7 +16984,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1271">
@@ -17114,7 +17114,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1281">
@@ -17413,7 +17413,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1304">
@@ -17465,7 +17465,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1308">
@@ -17478,7 +17478,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1309">
@@ -17556,7 +17556,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1315">
@@ -17660,7 +17660,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1323">
@@ -17673,7 +17673,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1324">
@@ -17738,7 +17738,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1329">
@@ -17764,7 +17764,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1331">
@@ -17829,7 +17829,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1336">
@@ -17972,7 +17972,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1347">
@@ -18037,7 +18037,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1352">
@@ -18115,7 +18115,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1358">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1373">
@@ -18341,7 +18341,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1375">
@@ -18419,7 +18419,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1381">
@@ -18432,7 +18432,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1382">
@@ -18471,7 +18471,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1385">
@@ -18510,7 +18510,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1388">
@@ -18689,7 +18689,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1401">
@@ -18702,7 +18702,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1402">
@@ -18767,7 +18767,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1407">
@@ -18793,7 +18793,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1409">
@@ -18923,7 +18923,7 @@
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1419">
@@ -19001,7 +19001,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1425">
@@ -19053,7 +19053,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1429">
@@ -19079,7 +19079,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1431">
@@ -19183,7 +19183,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1439">
@@ -19196,7 +19196,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1440">
@@ -19209,7 +19209,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1441">
@@ -19222,7 +19222,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1442">
@@ -19235,7 +19235,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1443">
@@ -19752,7 +19752,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1482">
@@ -19952,7 +19952,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1497">
@@ -20373,7 +20373,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1529">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1536">
@@ -20495,7 +20495,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1538">
@@ -20560,7 +20560,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1543">
@@ -20651,7 +20651,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1550">
@@ -20690,7 +20690,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1553">
@@ -20703,7 +20703,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1554">
@@ -20742,7 +20742,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1557">
@@ -20781,7 +20781,7 @@
     <row r="1560">
       <c r="B1560" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1560">
@@ -20859,7 +20859,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1566">
@@ -20898,7 +20898,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1569">
@@ -21163,7 +21163,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1589">
@@ -21215,7 +21215,7 @@
     <row r="1593">
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1593">
@@ -21371,7 +21371,7 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1605">
@@ -21397,7 +21397,7 @@
     <row r="1607">
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1607">
@@ -21449,7 +21449,7 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1611">
@@ -21475,7 +21475,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1613">
@@ -21696,7 +21696,7 @@
     <row r="1630">
       <c r="B1630" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1630">
@@ -21709,7 +21709,7 @@
     <row r="1631">
       <c r="B1631" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1631">
@@ -21917,7 +21917,7 @@
     <row r="1647">
       <c r="B1647" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1647">
@@ -21930,7 +21930,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1648">
@@ -21969,7 +21969,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1651">
@@ -21982,7 +21982,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1652">
@@ -21995,7 +21995,7 @@
     <row r="1653">
       <c r="B1653" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1653">
@@ -22008,7 +22008,7 @@
     <row r="1654">
       <c r="B1654" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1654">
@@ -22138,7 +22138,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1664">
@@ -22177,7 +22177,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1667">
@@ -22216,7 +22216,7 @@
     <row r="1670">
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1670">
@@ -22229,7 +22229,7 @@
     <row r="1671">
       <c r="B1671" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1671">
@@ -22281,7 +22281,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1675">
@@ -22372,7 +22372,7 @@
     <row r="1682">
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1682">
@@ -22470,7 +22470,7 @@
         <v>71</v>
       </c>
       <c r="D1689">
-        <v>0.0009237334443548177</v>
+        <v>0.0009237334443548176</v>
       </c>
     </row>
     <row r="1690">
@@ -22489,7 +22489,7 @@
     <row r="1691">
       <c r="B1691" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1691">
@@ -22541,7 +22541,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1695">
@@ -22554,7 +22554,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1696">
@@ -22606,7 +22606,7 @@
     <row r="1700">
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1700">
@@ -22749,7 +22749,7 @@
     <row r="1711">
       <c r="B1711" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1711">
@@ -22788,7 +22788,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1714">
@@ -22866,7 +22866,7 @@
     <row r="1720">
       <c r="B1720" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1720">
@@ -23126,7 +23126,7 @@
     <row r="1740">
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1740">
@@ -23269,7 +23269,7 @@
     <row r="1751">
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1751">
@@ -23386,7 +23386,7 @@
     <row r="1760">
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1760">
@@ -23682,7 +23682,7 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1782">
@@ -23708,7 +23708,7 @@
     <row r="1784">
       <c r="B1784" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1784">
@@ -23734,7 +23734,7 @@
     <row r="1786">
       <c r="B1786" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1786">
@@ -23864,7 +23864,7 @@
     <row r="1796">
       <c r="B1796" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1796">
@@ -23942,7 +23942,7 @@
     <row r="1802">
       <c r="B1802" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1802">
@@ -24007,7 +24007,7 @@
     <row r="1807">
       <c r="B1807" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1807">
@@ -24020,7 +24020,7 @@
     <row r="1808">
       <c r="B1808" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1808">
@@ -24033,7 +24033,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1809">
@@ -24176,7 +24176,7 @@
     <row r="1820">
       <c r="B1820" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1820">
@@ -24189,7 +24189,7 @@
     <row r="1821">
       <c r="B1821" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1821">
@@ -24215,7 +24215,7 @@
     <row r="1823">
       <c r="B1823" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1823">
@@ -24254,7 +24254,7 @@
     <row r="1826">
       <c r="B1826" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1826">
@@ -24353,41 +24353,6 @@
       </c>
       <c r="D1833">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1835">
-      <c r="A1835" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="A1836" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="A1837" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="A1838" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
